--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.94779386467461</v>
+        <v>94.41536348813869</v>
       </c>
       <c r="D2" t="n">
-        <v>23.07952723881229</v>
+        <v>19.4064251093533</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.24001735365829</v>
+        <v>88.09426152696824</v>
       </c>
       <c r="D3" t="n">
-        <v>21.18200404221792</v>
+        <v>19.09789585102896</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.48199948034635</v>
+        <v>92.9350821095788</v>
       </c>
       <c r="D4" t="n">
-        <v>22.52089056068825</v>
+        <v>18.38134570987489</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>93.09401544111824</v>
+        <v>85.30518469372664</v>
       </c>
       <c r="D5" t="n">
-        <v>20.73032553520367</v>
+        <v>19.49675072681187</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.89986446817477</v>
+        <v>89.05433644162765</v>
       </c>
       <c r="D6" t="n">
-        <v>21.73837680948277</v>
+        <v>21.42621373933299</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.26629833865631</v>
+        <v>86.76090289785647</v>
       </c>
       <c r="D7" t="n">
-        <v>19.64080870647031</v>
+        <v>20.74492829159317</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.09166132574423</v>
+        <v>85.12942122479403</v>
       </c>
       <c r="D8" t="n">
-        <v>21.14592733696018</v>
+        <v>19.35121655414408</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.96839528103349</v>
+        <v>84.68732037101083</v>
       </c>
       <c r="D9" t="n">
-        <v>23.71302435228659</v>
+        <v>21.82954876361046</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.72733530400455</v>
+        <v>80.87529999201357</v>
       </c>
       <c r="D10" t="n">
-        <v>22.13193600940186</v>
+        <v>21.23743346770822</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.05801732601223</v>
+        <v>82.75633420065222</v>
       </c>
       <c r="D11" t="n">
-        <v>23.289850598767</v>
+        <v>21.19381290863486</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.52600337296859</v>
+        <v>83.65730095181124</v>
       </c>
       <c r="D12" t="n">
-        <v>21.95380621368425</v>
+        <v>20.30435110026602</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>84.62708810103895</v>
+        <v>82.54951704859273</v>
       </c>
       <c r="D13" t="n">
-        <v>19.88280965341544</v>
+        <v>19.84303987650428</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.60150272989432</v>
+        <v>78.90691723035593</v>
       </c>
       <c r="D14" t="n">
-        <v>18.06249221503877</v>
+        <v>18.76028161771811</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.63351818503686</v>
+        <v>80.17211655893607</v>
       </c>
       <c r="D15" t="n">
-        <v>20.21124268209732</v>
+        <v>18.8949291070051</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>81.06750065937875</v>
+        <v>77.74592702691056</v>
       </c>
       <c r="D16" t="n">
-        <v>21.44495907233512</v>
+        <v>17.47757571797188</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.41974965227281</v>
+        <v>74.84926388074099</v>
       </c>
       <c r="D17" t="n">
-        <v>19.86364731432892</v>
+        <v>20.28196863713538</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>80.74186633867133</v>
+        <v>79.02646406954005</v>
       </c>
       <c r="D18" t="n">
-        <v>21.08527890244696</v>
+        <v>17.45369930755355</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.17352951465881</v>
+        <v>75.19664915175206</v>
       </c>
       <c r="D19" t="n">
-        <v>20.07551747100536</v>
+        <v>23.28687917749999</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.10722870912724</v>
+        <v>73.70041096754076</v>
       </c>
       <c r="D20" t="n">
-        <v>21.52213296693218</v>
+        <v>20.87893636234634</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.69500119059705</v>
+        <v>73.20753165040296</v>
       </c>
       <c r="D21" t="n">
-        <v>19.6656388487675</v>
+        <v>19.56722660047527</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.95401185139143</v>
+        <v>70.01887184390688</v>
       </c>
       <c r="D22" t="n">
-        <v>21.81132155041162</v>
+        <v>18.77366286074119</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.04613276142334</v>
+        <v>68.70069969076584</v>
       </c>
       <c r="D23" t="n">
-        <v>22.24772460571465</v>
+        <v>19.49270918446665</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.21861847282563</v>
+        <v>69.2415844265272</v>
       </c>
       <c r="D24" t="n">
-        <v>21.75524863790531</v>
+        <v>19.2820742030478</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.09046397169453</v>
+        <v>68.75945099260211</v>
       </c>
       <c r="D25" t="n">
-        <v>18.94553735148407</v>
+        <v>21.42844422699425</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.41724521792628</v>
+        <v>67.35175938427751</v>
       </c>
       <c r="D26" t="n">
-        <v>21.3073184620137</v>
+        <v>19.0222137163585</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>69.76996862818474</v>
+        <v>66.43006702757539</v>
       </c>
       <c r="D27" t="n">
-        <v>21.35286661186079</v>
+        <v>18.47143752684763</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.29304544086911</v>
+        <v>65.69861054857766</v>
       </c>
       <c r="D28" t="n">
-        <v>19.17354752360711</v>
+        <v>20.79914549112534</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.50034680059071</v>
+        <v>64.54222447461437</v>
       </c>
       <c r="D29" t="n">
-        <v>20.5601318724114</v>
+        <v>23.94239600310406</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.64762326633995</v>
+        <v>64.97645077728269</v>
       </c>
       <c r="D30" t="n">
-        <v>21.78619073277983</v>
+        <v>16.6148135545396</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.00029034959883</v>
+        <v>64.73470226676105</v>
       </c>
       <c r="D31" t="n">
-        <v>20.18566892813649</v>
+        <v>20.5228012161555</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.18284462192663</v>
+        <v>65.43459710261877</v>
       </c>
       <c r="D32" t="n">
-        <v>22.69224003364648</v>
+        <v>19.60177729426183</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.2686626698716</v>
+        <v>61.37726529196524</v>
       </c>
       <c r="D33" t="n">
-        <v>19.55951081568954</v>
+        <v>20.61762615580559</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.97963090121202</v>
+        <v>58.95954074055661</v>
       </c>
       <c r="D34" t="n">
-        <v>23.43636020243559</v>
+        <v>20.65839094080514</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.89517649960353</v>
+        <v>57.06191658871742</v>
       </c>
       <c r="D35" t="n">
-        <v>21.98827732431508</v>
+        <v>20.51688781055498</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.10844551917332</v>
+        <v>57.89188335193916</v>
       </c>
       <c r="D36" t="n">
-        <v>22.4680444632275</v>
+        <v>18.50101502244056</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.20746508010584</v>
+        <v>53.11380877889883</v>
       </c>
       <c r="D37" t="n">
-        <v>22.41817330822824</v>
+        <v>22.18654387036126</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.43463664877984</v>
+        <v>58.31900059862308</v>
       </c>
       <c r="D38" t="n">
-        <v>19.63392411180042</v>
+        <v>17.20800321055289</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.63418966668064</v>
+        <v>51.95590701634326</v>
       </c>
       <c r="D39" t="n">
-        <v>21.12965576431487</v>
+        <v>22.13357413664341</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.40906143161266</v>
+        <v>52.06606723523944</v>
       </c>
       <c r="D40" t="n">
-        <v>22.12493191345857</v>
+        <v>19.02631139208919</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.94937230063482</v>
+        <v>50.42807516495711</v>
       </c>
       <c r="D41" t="n">
-        <v>20.30382349694153</v>
+        <v>21.34615512649303</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.12486640568191</v>
+        <v>51.91813600728821</v>
       </c>
       <c r="D42" t="n">
-        <v>20.500797190416</v>
+        <v>20.86632155726167</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.9325085339265</v>
+        <v>46.58215783637019</v>
       </c>
       <c r="D43" t="n">
-        <v>24.66934857120174</v>
+        <v>21.46998090046086</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.81621920748745</v>
+        <v>46.51525025502642</v>
       </c>
       <c r="D44" t="n">
-        <v>20.55872989497044</v>
+        <v>22.98777281268976</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.95863241941489</v>
+        <v>47.68742425003841</v>
       </c>
       <c r="D45" t="n">
-        <v>19.94217827690493</v>
+        <v>20.68363015664682</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03394415894743</v>
+        <v>43.21200590243881</v>
       </c>
       <c r="D46" t="n">
-        <v>22.09896771127357</v>
+        <v>20.68389658386323</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.16009997523108</v>
+        <v>46.40902814915259</v>
       </c>
       <c r="D47" t="n">
-        <v>24.80363190295035</v>
+        <v>21.0265890917759</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.78173024073953</v>
+        <v>44.32581353048786</v>
       </c>
       <c r="D48" t="n">
-        <v>19.29800572774209</v>
+        <v>19.77350011590984</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.69539879644294</v>
+        <v>43.91957475046538</v>
       </c>
       <c r="D49" t="n">
-        <v>18.69188673900473</v>
+        <v>19.93861246783587</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.78027334650947</v>
+        <v>39.93153571249258</v>
       </c>
       <c r="D50" t="n">
-        <v>23.30410239410937</v>
+        <v>21.02420075171931</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.51908981419547</v>
+        <v>35.56095167343337</v>
       </c>
       <c r="D51" t="n">
-        <v>20.13129945437298</v>
+        <v>19.82358544206187</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.18451437711149</v>
+        <v>39.96839490076422</v>
       </c>
       <c r="D52" t="n">
-        <v>23.45579103120144</v>
+        <v>21.28656346824473</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.45599461152242</v>
+        <v>40.61155753148639</v>
       </c>
       <c r="D53" t="n">
-        <v>21.26459245660831</v>
+        <v>21.45060191834041</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.59559388064748</v>
+        <v>42.49206567652696</v>
       </c>
       <c r="D54" t="n">
-        <v>22.33135480184333</v>
+        <v>18.87236462938644</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.88415503711987</v>
+        <v>36.21461173068866</v>
       </c>
       <c r="D55" t="n">
-        <v>19.69727699237069</v>
+        <v>18.93749255936907</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.13830381457341</v>
+        <v>33.49046854339918</v>
       </c>
       <c r="D56" t="n">
-        <v>19.51904770664725</v>
+        <v>22.48839885009772</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.27350713458252</v>
+        <v>37.62159377056529</v>
       </c>
       <c r="D57" t="n">
-        <v>18.93008069757259</v>
+        <v>19.96360408515919</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>37.04016943928123</v>
+        <v>32.19886288644337</v>
       </c>
       <c r="D58" t="n">
-        <v>21.03132449592892</v>
+        <v>20.35116442843309</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>36.23333701501439</v>
+        <v>32.1194834045385</v>
       </c>
       <c r="D59" t="n">
-        <v>19.75470753910751</v>
+        <v>21.64480652454193</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>34.41484794003509</v>
+        <v>36.76873795328628</v>
       </c>
       <c r="D60" t="n">
-        <v>20.18794979914731</v>
+        <v>21.73748267658899</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.26175775156566</v>
+        <v>32.57463589003598</v>
       </c>
       <c r="D61" t="n">
-        <v>19.16782356467489</v>
+        <v>19.67748884017798</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.91164577347869</v>
+        <v>30.69996888767453</v>
       </c>
       <c r="D62" t="n">
-        <v>18.67278962696301</v>
+        <v>19.4843474471231</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.07212003823008</v>
+        <v>29.84601013983837</v>
       </c>
       <c r="D63" t="n">
-        <v>19.73997935320605</v>
+        <v>20.20108574348962</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>31.39937618126809</v>
+        <v>27.96410202825829</v>
       </c>
       <c r="D64" t="n">
-        <v>21.58444395155118</v>
+        <v>20.29197547293361</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>32.46348866032795</v>
+        <v>27.90064862775407</v>
       </c>
       <c r="D65" t="n">
-        <v>23.30215138846469</v>
+        <v>19.4271811046962</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.44754043658473</v>
+        <v>28.63458150829124</v>
       </c>
       <c r="D66" t="n">
-        <v>21.48567359789315</v>
+        <v>19.94012816214548</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.92055644722778</v>
+        <v>25.47478883100981</v>
       </c>
       <c r="D67" t="n">
-        <v>18.60839932050048</v>
+        <v>23.03545996275186</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.75322276948954</v>
+        <v>22.89485093570522</v>
       </c>
       <c r="D68" t="n">
-        <v>20.08213733466171</v>
+        <v>19.55002307768056</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.18152508303683</v>
+        <v>21.05765570644053</v>
       </c>
       <c r="D69" t="n">
-        <v>19.33734307920398</v>
+        <v>20.3131058490779</v>
       </c>
     </row>
   </sheetData>
